--- a/step3/2_days_excel_results/spymemcached_final.xlsx
+++ b/step3/2_days_excel_results/spymemcached_final.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomlin/Documents/GitHub/cmput402-project/step3/excel_results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomlin/Documents/GitHub/cmput402-project/step3/2_days_excel_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{063E2EAE-B5D5-F24E-9F30-1CF60FED47E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1CD805-78AE-3C4F-8182-C3BCA5CDC4A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="3460" windowWidth="24680" windowHeight="14040"/>
+    <workbookView xWindow="1340" yWindow="460" windowWidth="27460" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="spymemcached_final" sheetId="1" r:id="rId1"/>
+    <sheet name="DA" sheetId="2" r:id="rId1"/>
+    <sheet name="spymemcached_final" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">spymemcached_final!$A$1:$I$212</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="77" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>close_date</t>
   </si>
@@ -45,11 +52,50 @@
   <si>
     <t>CloseToReleaseDate</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of DirectlyApproveRate</t>
+  </si>
+  <si>
+    <t>0-0.1</t>
+  </si>
+  <si>
+    <t>0.1-0.2</t>
+  </si>
+  <si>
+    <t>0.2-0.3</t>
+  </si>
+  <si>
+    <t>0.3-0.4</t>
+  </si>
+  <si>
+    <t>0.4-0.5</t>
+  </si>
+  <si>
+    <t>0.5-0.6</t>
+  </si>
+  <si>
+    <t>0.6-0.7</t>
+  </si>
+  <si>
+    <t>0.7-0.8</t>
+  </si>
+  <si>
+    <t>0.8-0.9</t>
+  </si>
+  <si>
+    <t>0.9-1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -527,9 +573,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -586,6 +637,1670 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[spymemcached_final.xlsx]DA!PivotTable19</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DA!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>DA!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0-0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1-0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2-0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3-0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4-0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5-0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6-0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7-0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8-0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DA!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29AA-F24A-B17F-6FC76AF40D22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="856785679"/>
+        <c:axId val="871291151"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="856785679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="871291151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="871291151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="856785679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F2D56E0-FAFB-5E4A-B6AE-558C0B66668A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43551.623556944447" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="165" xr:uid="{7B2D56DA-6225-C44A-A185-82BD841C224F}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="G1:G166" sheet="spymemcached_final"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="DirectlyApproveRate" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1" count="16">
+        <n v="0"/>
+        <n v="1"/>
+        <n v="0.2"/>
+        <n v="0.5"/>
+        <n v="0.33333333333333298"/>
+        <n v="0.45714285714285702"/>
+        <n v="0.25"/>
+        <n v="0.6"/>
+        <n v="0.8"/>
+        <n v="0.18181818181818099"/>
+        <n v="0.66666666666666596"/>
+        <n v="0.42857142857142799"/>
+        <n v="0.11111111111111099"/>
+        <n v="0.71428571428571397"/>
+        <n v="0.75"/>
+        <n v="0.83333333333333304"/>
+      </sharedItems>
+      <fieldGroup base="0">
+        <rangePr startNum="0" endNum="1" groupInterval="0.1"/>
+        <groupItems count="12">
+          <s v="&lt;0"/>
+          <s v="0-0.1"/>
+          <s v="0.1-0.2"/>
+          <s v="0.2-0.3"/>
+          <s v="0.3-0.4"/>
+          <s v="0.4-0.5"/>
+          <s v="0.5-0.6"/>
+          <s v="0.6-0.7"/>
+          <s v="0.7-0.8"/>
+          <s v="0.8-0.9"/>
+          <s v="0.9-1"/>
+          <s v="&gt;1"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="165">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7325BA3A-6F33-7C4D-9350-FF229CCE2FFE}" name="PivotTable19" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of DirectlyApproveRate" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -884,12 +2599,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED1216E-2D8F-5349-9092-69A96F4748BA}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G166"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" t="s">
@@ -1267,80 +3111,80 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>40547</v>
+        <v>40552</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>40550</v>
+        <v>40553</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>40552</v>
+        <v>40554</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1354,28 +3198,28 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>40553</v>
+        <v>40555</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1383,25 +3227,25 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>40554</v>
+        <v>40563</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1412,16 +3256,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>40555</v>
+        <v>40604</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1430,10 +3274,10 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1441,28 +3285,28 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>40563</v>
+        <v>40609</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1470,28 +3314,28 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>40604</v>
+        <v>40652</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -1499,28 +3343,28 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>40609</v>
+        <v>40655</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -1528,22 +3372,22 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>40652</v>
+        <v>40673</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1557,10 +3401,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>40655</v>
+        <v>40674</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1586,10 +3430,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>40673</v>
+        <v>40681</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1615,25 +3459,25 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>40674</v>
+        <v>40686</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1644,25 +3488,25 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>40681</v>
+        <v>40694</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1673,28 +3517,28 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>40686</v>
+        <v>40697</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -1702,28 +3546,28 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>40694</v>
+        <v>40698</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
@@ -1731,28 +3575,28 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
-        <v>40697</v>
+        <v>40700</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0.33333333333333298</v>
+        <v>0.5</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -1760,10 +3604,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1">
-        <v>40698</v>
+        <v>40701</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1772,16 +3616,16 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -1789,28 +3633,28 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1">
-        <v>40700</v>
+        <v>40702</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.45714285714285702</v>
       </c>
       <c r="H32">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -1818,16 +3662,16 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>40701</v>
+        <v>40703</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1836,10 +3680,10 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -1847,28 +3691,28 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1">
-        <v>40702</v>
+        <v>40704</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.45714285714285702</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
@@ -1876,10 +3720,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1">
-        <v>40703</v>
+        <v>40707</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1905,28 +3749,28 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1">
-        <v>40704</v>
+        <v>40710</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -1934,10 +3778,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1">
-        <v>40706</v>
+        <v>40711</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1946,42 +3790,42 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
-        <v>40707</v>
+        <v>40716</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -1992,13 +3836,13 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
-        <v>40709</v>
+        <v>40717</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2007,42 +3851,42 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B40" s="1">
-        <v>40710</v>
+        <v>40721</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -2050,28 +3894,28 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1">
-        <v>40711</v>
+        <v>40723</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G41">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
@@ -2079,115 +3923,115 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1">
-        <v>40712</v>
+        <v>40729</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1">
-        <v>40714</v>
+        <v>40731</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B44" s="1">
-        <v>40715</v>
+        <v>40734</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B45" s="1">
-        <v>40716</v>
+        <v>40735</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
@@ -2195,10 +4039,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B46" s="1">
-        <v>40717</v>
+        <v>40737</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2207,13 +4051,13 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2224,10 +4068,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1">
-        <v>40719</v>
+        <v>40738</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2236,30 +4080,30 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G47">
-        <v>0.66666666666666596</v>
+        <v>0.18181818181818099</v>
       </c>
       <c r="H47">
-        <v>0.33333333333333298</v>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="I47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B48" s="1">
-        <v>40721</v>
+        <v>40742</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2268,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="I48" t="b">
         <v>1</v>
@@ -2282,28 +4126,28 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B49" s="1">
-        <v>40723</v>
+        <v>40743</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H49">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
@@ -2311,10 +4155,10 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B50" s="1">
-        <v>40724</v>
+        <v>40744</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2335,30 +4179,30 @@
         <v>0</v>
       </c>
       <c r="I50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1">
-        <v>40729</v>
+        <v>40746</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
         <v>4</v>
       </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
       <c r="F51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G51">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2369,28 +4213,28 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B52" s="1">
-        <v>40731</v>
+        <v>40750</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
@@ -2398,57 +4242,57 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B53" s="1">
-        <v>40733</v>
+        <v>40751</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G53">
-        <v>0.5</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="H53">
-        <v>0.5</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="I53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B54" s="1">
-        <v>40734</v>
+        <v>40752</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0.42857142857142799</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>0.42857142857142799</v>
       </c>
       <c r="I54" t="b">
         <v>1</v>
@@ -2456,28 +4300,28 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B55" s="1">
-        <v>40735</v>
+        <v>40757</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
@@ -2485,25 +4329,25 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B56" s="1">
-        <v>40737</v>
+        <v>40758</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>2</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G56">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2514,28 +4358,28 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B57" s="1">
-        <v>40738</v>
+        <v>40763</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>0.18181818181818099</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>9.0909090909090898E-2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
@@ -2543,10 +4387,10 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B58" s="1">
-        <v>40739</v>
+        <v>40765</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2555,45 +4399,45 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B59" s="1">
-        <v>40742</v>
+        <v>40770</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>0.66666666666666596</v>
+        <v>1</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -2601,28 +4445,28 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B60" s="1">
-        <v>40743</v>
+        <v>40771</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G60">
-        <v>0.5</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="H60">
-        <v>0.5</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
@@ -2630,25 +4474,25 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B61" s="1">
-        <v>40744</v>
+        <v>40772</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2659,57 +4503,57 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B62" s="1">
-        <v>40745</v>
+        <v>40774</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G62">
-        <v>0.6</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="H62">
-        <v>0.4</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="I62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B63" s="1">
-        <v>40746</v>
+        <v>40779</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>0.28571428571428498</v>
       </c>
       <c r="I63" t="b">
         <v>1</v>
@@ -2717,28 +4561,28 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B64" s="1">
-        <v>40750</v>
+        <v>40780</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>0.66666666666666596</v>
+        <v>1</v>
       </c>
       <c r="I64" t="b">
         <v>1</v>
@@ -2746,28 +4590,28 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B65" s="1">
-        <v>40751</v>
+        <v>40792</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G65">
-        <v>0.66666666666666596</v>
+        <v>0.5</v>
       </c>
       <c r="H65">
-        <v>0.33333333333333298</v>
+        <v>0.2</v>
       </c>
       <c r="I65" t="b">
         <v>1</v>
@@ -2775,28 +4619,28 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B66" s="1">
-        <v>40752</v>
+        <v>40793</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G66">
-        <v>0.42857142857142799</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="H66">
-        <v>0.42857142857142799</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="I66" t="b">
         <v>1</v>
@@ -2804,25 +4648,25 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B67" s="1">
-        <v>40757</v>
+        <v>40794</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G67">
-        <v>0.66666666666666596</v>
+        <v>0.25</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2833,25 +4677,25 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B68" s="1">
-        <v>40758</v>
+        <v>40795</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2862,83 +4706,83 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B69" s="1">
-        <v>40759</v>
+        <v>40798</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B70" s="1">
-        <v>40761</v>
+        <v>40800</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B71" s="1">
-        <v>40763</v>
+        <v>40805</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2949,10 +4793,10 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B72" s="1">
-        <v>40765</v>
+        <v>40808</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2978,28 +4822,28 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B73" s="1">
-        <v>40770</v>
+        <v>40811</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
@@ -3007,28 +4851,28 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B74" s="1">
-        <v>40771</v>
+        <v>40814</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
         <v>4</v>
       </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>6</v>
-      </c>
       <c r="G74">
-        <v>0.66666666666666596</v>
+        <v>0.75</v>
       </c>
       <c r="H74">
-        <v>0.33333333333333298</v>
+        <v>0.25</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
@@ -3036,22 +4880,22 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B75" s="1">
-        <v>40772</v>
+        <v>40815</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -3065,28 +4909,28 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B76" s="1">
-        <v>40774</v>
+        <v>40819</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>0.11111111111111099</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>0.88888888888888795</v>
+        <v>1</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
@@ -3094,28 +4938,28 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B77" s="1">
-        <v>40779</v>
+        <v>40823</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G77">
-        <v>0.71428571428571397</v>
+        <v>0.5</v>
       </c>
       <c r="H77">
-        <v>0.28571428571428498</v>
+        <v>0.5</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
@@ -3123,16 +4967,16 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B78" s="1">
-        <v>40780</v>
+        <v>40825</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3141,10 +4985,10 @@
         <v>1</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
@@ -3152,13 +4996,13 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B79" s="1">
-        <v>40789</v>
+        <v>40827</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -3167,24 +5011,24 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B80" s="1">
-        <v>40790</v>
+        <v>40828</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3193,45 +5037,45 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B81" s="1">
-        <v>40792</v>
+        <v>40829</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
@@ -3239,28 +5083,28 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B82" s="1">
-        <v>40793</v>
+        <v>40830</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>0.66666666666666596</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>0.16666666666666599</v>
+        <v>0</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
@@ -3268,10 +5112,10 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B83" s="1">
-        <v>40794</v>
+        <v>40834</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -3280,13 +5124,13 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3297,28 +5141,28 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B84" s="1">
-        <v>40795</v>
+        <v>40835</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
@@ -3326,28 +5170,28 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B85" s="1">
-        <v>40798</v>
+        <v>40837</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I85" t="b">
         <v>1</v>
@@ -3355,22 +5199,22 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B86" s="1">
-        <v>40800</v>
+        <v>40838</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -3384,54 +5228,54 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B87" s="1">
-        <v>40802</v>
+        <v>40839</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G87">
-        <v>0.75</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="H87">
-        <v>0.25</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="I87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B88" s="1">
-        <v>40805</v>
+        <v>40843</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3442,57 +5286,57 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B89" s="1">
-        <v>40806</v>
+        <v>40906</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G89">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>0.66666666666666596</v>
+        <v>0</v>
       </c>
       <c r="I89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B90" s="1">
-        <v>40808</v>
+        <v>40910</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I90" t="b">
         <v>1</v>
@@ -3500,10 +5344,10 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B91" s="1">
-        <v>40810</v>
+        <v>40911</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3524,15 +5368,15 @@
         <v>0</v>
       </c>
       <c r="I91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B92" s="1">
-        <v>40811</v>
+        <v>40914</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3558,28 +5402,28 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B93" s="1">
-        <v>40814</v>
+        <v>40916</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G93">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="H93">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I93" t="b">
         <v>1</v>
@@ -3587,13 +5431,13 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="B94" s="1">
-        <v>40815</v>
+        <v>40930</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -3602,13 +5446,13 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
@@ -3616,19 +5460,19 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B95" s="1">
-        <v>40819</v>
+        <v>40942</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -3637,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="b">
         <v>1</v>
@@ -3645,28 +5489,28 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B96" s="1">
-        <v>40823</v>
+        <v>40945</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I96" t="b">
         <v>1</v>
@@ -3674,13 +5518,13 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="B97" s="1">
-        <v>40824</v>
+        <v>40959</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -3689,39 +5533,39 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="I97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B98" s="1">
-        <v>40825</v>
+        <v>40963</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3732,10 +5576,10 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="B99" s="1">
-        <v>40827</v>
+        <v>40984</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -3761,28 +5605,28 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B100" s="1">
-        <v>40828</v>
+        <v>40989</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G100">
-        <v>0.33333333333333298</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>0.28571428571428498</v>
       </c>
       <c r="I100" t="b">
         <v>1</v>
@@ -3790,19 +5634,19 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B101" s="1">
-        <v>40829</v>
+        <v>40990</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -3811,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="b">
         <v>1</v>
@@ -3819,16 +5663,16 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B102" s="1">
-        <v>40830</v>
+        <v>41052</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -3837,10 +5681,10 @@
         <v>1</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="b">
         <v>1</v>
@@ -3848,28 +5692,28 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B103" s="1">
-        <v>40834</v>
+        <v>41053</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="b">
         <v>1</v>
@@ -3877,16 +5721,16 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="B104" s="1">
-        <v>40835</v>
+        <v>41064</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -3895,10 +5739,10 @@
         <v>2</v>
       </c>
       <c r="G104">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I104" t="b">
         <v>1</v>
@@ -3906,19 +5750,19 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="B105" s="1">
-        <v>40837</v>
+        <v>41071</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -3927,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="b">
         <v>1</v>
@@ -3935,22 +5779,22 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="B106" s="1">
-        <v>40838</v>
+        <v>41093</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -3964,28 +5808,28 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="B107" s="1">
-        <v>40839</v>
+        <v>41113</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>0.83333333333333304</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>0.16666666666666599</v>
+        <v>0</v>
       </c>
       <c r="I107" t="b">
         <v>1</v>
@@ -3993,39 +5837,39 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B108" s="1">
-        <v>40840</v>
+        <v>41114</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>2</v>
       </c>
       <c r="G108">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="B109" s="1">
-        <v>40843</v>
+        <v>41115</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -4051,25 +5895,25 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B110" s="1">
-        <v>40906</v>
+        <v>41120</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <v>2</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -4080,28 +5924,28 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B111" s="1">
-        <v>40910</v>
+        <v>41134</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I111" t="b">
         <v>1</v>
@@ -4109,28 +5953,28 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B112" s="1">
-        <v>40911</v>
+        <v>41138</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I112" t="b">
         <v>1</v>
@@ -4138,16 +5982,16 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="B113" s="1">
-        <v>40914</v>
+        <v>41140</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -4156,10 +6000,10 @@
         <v>2</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I113" t="b">
         <v>1</v>
@@ -4167,25 +6011,25 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="B114" s="1">
-        <v>40916</v>
+        <v>41142</v>
       </c>
       <c r="C114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G114">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>0.5</v>
@@ -4196,48 +6040,48 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="B115" s="1">
-        <v>40919</v>
+        <v>41169</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
         <v>1</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="B116" s="1">
-        <v>40920</v>
+        <v>41190</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -4246,36 +6090,36 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="B117" s="1">
-        <v>40930</v>
+        <v>41254</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G117">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I117" t="b">
         <v>1</v>
@@ -4283,10 +6127,10 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="B118" s="1">
-        <v>40942</v>
+        <v>41283</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -4312,19 +6156,19 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="B119" s="1">
-        <v>40945</v>
+        <v>41304</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -4333,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="b">
         <v>1</v>
@@ -4341,28 +6185,28 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="B120" s="1">
-        <v>40959</v>
+        <v>41338</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G120">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>0.66666666666666596</v>
+        <v>0</v>
       </c>
       <c r="I120" t="b">
         <v>1</v>
@@ -4370,10 +6214,10 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="B121" s="1">
-        <v>40963</v>
+        <v>41429</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -4382,10 +6226,10 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4399,25 +6243,25 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="B122" s="1">
-        <v>40984</v>
+        <v>41449</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
         <v>1</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -4428,28 +6272,28 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="B123" s="1">
-        <v>40989</v>
+        <v>41452</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G123">
-        <v>0.71428571428571397</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>0.28571428571428498</v>
+        <v>0</v>
       </c>
       <c r="I123" t="b">
         <v>1</v>
@@ -4457,10 +6301,10 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="B124" s="1">
-        <v>40990</v>
+        <v>41513</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -4486,10 +6330,10 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="B125" s="1">
-        <v>41052</v>
+        <v>41516</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -4515,28 +6359,28 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="B126" s="1">
-        <v>41053</v>
+        <v>41520</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="b">
         <v>1</v>
@@ -4544,45 +6388,45 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="B127" s="1">
-        <v>41061</v>
+        <v>41521</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="B128" s="1">
-        <v>41062</v>
+        <v>41522</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -4591,39 +6435,39 @@
         <v>1</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="B129" s="1">
-        <v>41064</v>
+        <v>41555</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129">
         <v>0</v>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="b">
         <v>1</v>
@@ -4631,10 +6475,10 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="B130" s="1">
-        <v>41069</v>
+        <v>41556</v>
       </c>
       <c r="C130">
         <v>2</v>
@@ -4655,30 +6499,30 @@
         <v>1</v>
       </c>
       <c r="I130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="B131" s="1">
-        <v>41071</v>
+        <v>41568</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>1</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -4689,16 +6533,16 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="B132" s="1">
-        <v>41075</v>
+        <v>41610</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -4707,21 +6551,21 @@
         <v>2</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="B133" s="1">
-        <v>41089</v>
+        <v>41646</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -4742,18 +6586,18 @@
         <v>0.5</v>
       </c>
       <c r="I133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="B134" s="1">
-        <v>41093</v>
+        <v>41647</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -4762,13 +6606,13 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I134" t="b">
         <v>1</v>
@@ -4776,74 +6620,74 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="B135" s="1">
-        <v>41101</v>
+        <v>41654</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F135">
         <v>2</v>
       </c>
       <c r="G135">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="B136" s="1">
-        <v>41102</v>
+        <v>41655</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="B137" s="1">
-        <v>41113</v>
+        <v>41670</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -4852,10 +6696,10 @@
         <v>1</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="b">
         <v>1</v>
@@ -4863,13 +6707,13 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="B138" s="1">
-        <v>41114</v>
+        <v>41673</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -4878,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -4892,16 +6736,16 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="B139" s="1">
-        <v>41115</v>
+        <v>41684</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -4910,10 +6754,10 @@
         <v>1</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="b">
         <v>1</v>
@@ -4921,28 +6765,28 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="B140" s="1">
-        <v>41120</v>
+        <v>41695</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E140">
         <v>0</v>
       </c>
       <c r="F140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="b">
         <v>1</v>
@@ -4950,13 +6794,13 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="B141" s="1">
-        <v>41134</v>
+        <v>41704</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -4965,13 +6809,13 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I141" t="b">
         <v>1</v>
@@ -4979,10 +6823,10 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="B142" s="1">
-        <v>41138</v>
+        <v>41718</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -4991,16 +6835,16 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
       <c r="H142">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I142" t="b">
         <v>1</v>
@@ -5008,28 +6852,28 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="B143" s="1">
-        <v>41140</v>
+        <v>41722</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G143">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I143" t="b">
         <v>1</v>
@@ -5037,10 +6881,10 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B144" s="1">
-        <v>41142</v>
+        <v>41733</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -5049,16 +6893,16 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I144" t="b">
         <v>1</v>
@@ -5066,28 +6910,28 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="B145" s="1">
-        <v>41169</v>
+        <v>41743</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I145" t="b">
         <v>1</v>
@@ -5095,48 +6939,48 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="B146" s="1">
-        <v>41180</v>
+        <v>41764</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="B147" s="1">
-        <v>41190</v>
+        <v>41766</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -5145,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="b">
         <v>1</v>
@@ -5153,28 +6997,28 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="B148" s="1">
-        <v>41254</v>
+        <v>41792</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="I148" t="b">
         <v>1</v>
@@ -5182,28 +7026,28 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="B149" s="1">
-        <v>41283</v>
+        <v>41794</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="I149" t="b">
         <v>1</v>
@@ -5211,19 +7055,19 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="B150" s="1">
-        <v>41304</v>
+        <v>41814</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -5232,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="b">
         <v>1</v>
@@ -5240,25 +7084,25 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="B151" s="1">
-        <v>41338</v>
+        <v>41953</v>
       </c>
       <c r="C151">
         <v>0</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
         <v>1</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -5269,54 +7113,54 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B152" s="1">
-        <v>41380</v>
+        <v>41964</v>
       </c>
       <c r="C152">
         <v>0</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
         <v>1</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
       <c r="I152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="B153" s="1">
-        <v>41429</v>
+        <v>42023</v>
       </c>
       <c r="C153">
         <v>0</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -5327,10 +7171,10 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="B154" s="1">
-        <v>41438</v>
+        <v>42073</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -5351,30 +7195,30 @@
         <v>0</v>
       </c>
       <c r="I154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="B155" s="1">
-        <v>41449</v>
+        <v>42074</v>
       </c>
       <c r="C155">
         <v>0</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
         <v>1</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -5385,19 +7229,19 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="B156" s="1">
-        <v>41452</v>
+        <v>42143</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156">
         <v>0</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -5406,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="b">
         <v>1</v>
@@ -5414,10 +7258,10 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="B157" s="1">
-        <v>41513</v>
+        <v>42166</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -5443,10 +7287,10 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="B158" s="1">
-        <v>41516</v>
+        <v>42382</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -5472,16 +7316,16 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="B159" s="1">
-        <v>41519</v>
+        <v>42464</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -5490,36 +7334,36 @@
         <v>1</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="B160" s="1">
-        <v>41520</v>
+        <v>42613</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
         <v>1</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -5530,28 +7374,28 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="B161" s="1">
-        <v>41521</v>
+        <v>42755</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="b">
         <v>1</v>
@@ -5559,10 +7403,10 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="B162" s="1">
-        <v>41522</v>
+        <v>42767</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -5588,10 +7432,10 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="B163" s="1">
-        <v>41555</v>
+        <v>42808</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -5617,13 +7461,13 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="B164" s="1">
-        <v>41556</v>
+        <v>42832</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -5632,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -5646,16 +7490,16 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="B165" s="1">
-        <v>41563</v>
+        <v>42835</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -5664,21 +7508,21 @@
         <v>1</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="B166" s="1">
-        <v>41568</v>
+        <v>42950</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -5704,10 +7548,10 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="B167" s="1">
-        <v>41598</v>
+        <v>40547</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -5716,10 +7560,10 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -5733,28 +7577,28 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="B168" s="1">
-        <v>41606</v>
+        <v>40550</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168">
         <v>0</v>
       </c>
       <c r="F168">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G168">
-        <v>0.33333333333333298</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>0.66666666666666596</v>
+        <v>0</v>
       </c>
       <c r="I168" t="b">
         <v>0</v>
@@ -5762,39 +7606,39 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="B169" s="1">
-        <v>41610</v>
+        <v>40706</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169">
         <v>0</v>
       </c>
       <c r="F169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="B170" s="1">
-        <v>41646</v>
+        <v>40709</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -5815,18 +7659,18 @@
         <v>0.5</v>
       </c>
       <c r="I170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="B171" s="1">
-        <v>41647</v>
+        <v>40712</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -5835,56 +7679,56 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G171">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="B172" s="1">
-        <v>41654</v>
+        <v>40714</v>
       </c>
       <c r="C172">
         <v>0</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172">
         <v>0</v>
       </c>
       <c r="I172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="B173" s="1">
-        <v>41655</v>
+        <v>40715</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -5893,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -5902,53 +7746,53 @@
         <v>1</v>
       </c>
       <c r="I173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="B174" s="1">
-        <v>41670</v>
+        <v>40719</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E174">
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="I174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="B175" s="1">
-        <v>41673</v>
+        <v>40724</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -5957,181 +7801,181 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176">
-        <v>174</v>
+        <v>51</v>
       </c>
       <c r="B176" s="1">
-        <v>41684</v>
+        <v>40733</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176">
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177">
-        <v>175</v>
+        <v>56</v>
       </c>
       <c r="B177" s="1">
-        <v>41695</v>
+        <v>40739</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="B178" s="1">
-        <v>41704</v>
+        <v>40745</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E178">
         <v>0</v>
       </c>
       <c r="F178">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G178">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H178">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="B179" s="1">
-        <v>41718</v>
+        <v>40759</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="B180" s="1">
-        <v>41722</v>
+        <v>40761</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="B181" s="1">
-        <v>41724</v>
+        <v>40789</v>
       </c>
       <c r="C181">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E181">
         <v>0</v>
       </c>
       <c r="F181">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I181" t="b">
         <v>0</v>
@@ -6139,28 +7983,28 @@
     </row>
     <row r="182" spans="1:9">
       <c r="A182">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="B182" s="1">
-        <v>41725</v>
+        <v>40790</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E182">
         <v>0</v>
       </c>
       <c r="F182">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G182">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I182" t="b">
         <v>0</v>
@@ -6168,42 +8012,42 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="B183" s="1">
-        <v>41733</v>
+        <v>40802</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E183">
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G183">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="B184" s="1">
-        <v>41743</v>
+        <v>40806</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -6212,36 +8056,36 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G184">
-        <v>0.5</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="H184">
-        <v>0.5</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="I184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="B185" s="1">
-        <v>41752</v>
+        <v>40810</v>
       </c>
       <c r="C185">
         <v>0</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E185">
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -6255,71 +8099,71 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="B186" s="1">
-        <v>41764</v>
+        <v>40824</v>
       </c>
       <c r="C186">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186">
         <v>0</v>
       </c>
       <c r="F186">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="B187" s="1">
-        <v>41766</v>
+        <v>40840</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="B188" s="1">
-        <v>41792</v>
+        <v>40919</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -6328,68 +8172,68 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G188">
-        <v>0.33333333333333298</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>0.66666666666666596</v>
+        <v>0</v>
       </c>
       <c r="I188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="B189" s="1">
-        <v>41794</v>
+        <v>40920</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E189">
         <v>0</v>
       </c>
       <c r="F189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G189">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>0.66666666666666596</v>
+        <v>1</v>
       </c>
       <c r="I189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="B190" s="1">
-        <v>41807</v>
+        <v>41061</v>
       </c>
       <c r="C190">
         <v>0</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E190">
         <v>1</v>
       </c>
       <c r="F190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G190">
-        <v>0.66666666666666596</v>
+        <v>0</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -6400,16 +8244,16 @@
     </row>
     <row r="191" spans="1:9">
       <c r="A191">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="B191" s="1">
-        <v>41814</v>
+        <v>41062</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -6418,39 +8262,39 @@
         <v>1</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="B192" s="1">
-        <v>41818</v>
+        <v>41069</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G192">
         <v>0</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="b">
         <v>0</v>
@@ -6458,22 +8302,22 @@
     </row>
     <row r="193" spans="1:9">
       <c r="A193">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="B193" s="1">
-        <v>41953</v>
+        <v>41075</v>
       </c>
       <c r="C193">
         <v>0</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E193">
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -6482,18 +8326,18 @@
         <v>0</v>
       </c>
       <c r="I193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="B194" s="1">
-        <v>41964</v>
+        <v>41089</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -6502,42 +8346,42 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="B195" s="1">
-        <v>41983</v>
+        <v>41101</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195">
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G195">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I195" t="b">
         <v>0</v>
@@ -6545,28 +8389,28 @@
     </row>
     <row r="196" spans="1:9">
       <c r="A196">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="B196" s="1">
-        <v>42013</v>
+        <v>41102</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E196">
         <v>0</v>
       </c>
       <c r="F196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G196">
-        <v>0.66666666666666596</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="I196" t="b">
         <v>0</v>
@@ -6574,39 +8418,39 @@
     </row>
     <row r="197" spans="1:9">
       <c r="A197">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="B197" s="1">
-        <v>42023</v>
+        <v>41180</v>
       </c>
       <c r="C197">
         <v>0</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
         <v>1</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
       <c r="I197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="B198" s="1">
-        <v>42033</v>
+        <v>41380</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -6632,10 +8476,10 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="B199" s="1">
-        <v>42073</v>
+        <v>41438</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -6656,15 +8500,15 @@
         <v>0</v>
       </c>
       <c r="I199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="B200" s="1">
-        <v>42074</v>
+        <v>41519</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -6685,21 +8529,21 @@
         <v>0</v>
       </c>
       <c r="I200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="B201" s="1">
-        <v>42143</v>
+        <v>41563</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -6708,97 +8552,97 @@
         <v>1</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="B202" s="1">
-        <v>42166</v>
+        <v>41598</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D202">
         <v>0</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G202">
         <v>0</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="B203" s="1">
-        <v>42382</v>
+        <v>41606</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E203">
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G203">
-        <v>0</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="I203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="B204" s="1">
-        <v>42417</v>
+        <v>41724</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G204">
         <v>0</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="b">
         <v>0</v>
@@ -6806,106 +8650,106 @@
     </row>
     <row r="205" spans="1:9">
       <c r="A205">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B205" s="1">
-        <v>42464</v>
+        <v>41725</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E205">
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="B206" s="1">
-        <v>42613</v>
+        <v>41752</v>
       </c>
       <c r="C206">
         <v>0</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
         <v>1</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
         <v>0</v>
       </c>
       <c r="I206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B207" s="1">
-        <v>42755</v>
+        <v>41807</v>
       </c>
       <c r="C207">
         <v>0</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G207">
-        <v>0</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="H207">
         <v>0</v>
       </c>
       <c r="I207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B208" s="1">
-        <v>42767</v>
+        <v>41818</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -6914,24 +8758,24 @@
         <v>0</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B209" s="1">
-        <v>42808</v>
+        <v>41983</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -6940,59 +8784,59 @@
         <v>1</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B210" s="1">
-        <v>42832</v>
+        <v>42013</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E210">
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G210">
-        <v>0</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="I210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B211" s="1">
-        <v>42835</v>
+        <v>42033</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D211">
         <v>0</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -7001,42 +8845,47 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B212" s="1">
-        <v>42950</v>
+        <v>42417</v>
       </c>
       <c r="C212">
         <v>0</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
         <v>1</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
         <v>0</v>
       </c>
       <c r="I212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I212" xr:uid="{28E6812B-D585-6842-8069-4A7142A885FB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I212">
+      <sortCondition descending="1" ref="I1:I212"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/step3/2_days_excel_results/spymemcached_final.xlsx
+++ b/step3/2_days_excel_results/spymemcached_final.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomlin/Documents/GitHub/cmput402-project/step3/2_days_excel_results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\cmput402-project\step3\2_days_excel_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1CD805-78AE-3C4F-8182-C3BCA5CDC4A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF535A5D-C0D2-40B2-9BA5-6193C3134287}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="460" windowWidth="27460" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DA" sheetId="2" r:id="rId1"/>
-    <sheet name="spymemcached_final" sheetId="1" r:id="rId2"/>
+    <sheet name="false DA" sheetId="3" r:id="rId2"/>
+    <sheet name="spymemcached_final" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">spymemcached_final!$A$1:$I$212</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">spymemcached_final!$A$1:$I$212</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="77" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>close_date</t>
   </si>
@@ -96,25 +98,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -122,7 +124,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -130,7 +132,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -138,35 +140,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -174,7 +176,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -182,14 +184,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -197,14 +199,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -212,7 +214,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -220,15 +222,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -683,7 +692,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -703,47 +712,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -913,7 +881,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="871291151"/>
@@ -972,7 +940,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="856785679"/>
@@ -1014,7 +982,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1051,7 +1019,381 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[spymemcached_final.xlsx]false DA!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'false DA'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'false DA'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0-0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3-0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5-0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6-0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7-0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'false DA'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8275-413A-845F-FF0B6DDC607C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="469211008"/>
+        <c:axId val="469211664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="469211008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469211664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="469211664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469211008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1118,7 +1460,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1662,6 +2547,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A70C2B6-4F55-42AD-B1D4-5C648C5F8DCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43551.623556944447" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="165" xr:uid="{7B2D56DA-6225-C44A-A185-82BD841C224F}">
   <cacheSource type="worksheet">
@@ -1714,6 +2640,49 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Roy" refreshedDate="43551.696521412036" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45" xr:uid="{3649E9BE-6728-45AA-9FC2-65747AF36F6A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="G167:G212" sheet="spymemcached_final"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="0" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1" count="7">
+        <n v="1"/>
+        <n v="0.5"/>
+        <n v="0"/>
+        <n v="0.66666666666666596"/>
+        <n v="0.6"/>
+        <n v="0.75"/>
+        <n v="0.33333333333333298"/>
+      </sharedItems>
+      <fieldGroup base="0">
+        <rangePr startNum="0" endNum="1" groupInterval="0.1"/>
+        <groupItems count="12">
+          <s v="&lt;0"/>
+          <s v="0-0.1"/>
+          <s v="0.1-0.2"/>
+          <s v="0.2-0.3"/>
+          <s v="0.3-0.4"/>
+          <s v="0.4-0.5"/>
+          <s v="0.5-0.6"/>
+          <s v="0.6-0.7"/>
+          <s v="0.7-0.8"/>
+          <s v="0.8-0.9"/>
+          <s v="0.9-1"/>
+          <s v="&gt;1"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="165">
   <r>
@@ -2210,12 +3179,152 @@
   </r>
   <r>
     <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="45">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7325BA3A-6F33-7C4D-9350-FF229CCE2FFE}" name="PivotTable19" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7325BA3A-6F33-7C4D-9350-FF229CCE2FFE}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -2266,6 +3375,83 @@
     </i>
     <i>
       <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of DirectlyApproveRate" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB6E5A0D-CFD3-4CA3-B0C7-F98F72B2475F}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField name="DirectlyApproveRate" axis="axisRow" dataField="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i>
       <x v="10"/>
@@ -2602,11 +3788,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED1216E-2D8F-5349-9092-69A96F4748BA}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
@@ -2624,7 +3810,7 @@
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>74</v>
       </c>
     </row>
@@ -2632,7 +3818,7 @@
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>2</v>
       </c>
     </row>
@@ -2640,7 +3826,7 @@
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>5</v>
       </c>
     </row>
@@ -2648,7 +3834,7 @@
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>8</v>
       </c>
     </row>
@@ -2656,7 +3842,7 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>2</v>
       </c>
     </row>
@@ -2664,7 +3850,7 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>14</v>
       </c>
     </row>
@@ -2672,7 +3858,7 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>5</v>
       </c>
     </row>
@@ -2680,7 +3866,7 @@
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>3</v>
       </c>
     </row>
@@ -2688,7 +3874,7 @@
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>2</v>
       </c>
     </row>
@@ -2696,7 +3882,7 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>50</v>
       </c>
     </row>
@@ -2704,34 +3890,120 @@
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>165</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2495AA59-6209-4772-9113-35F3C5FE154C}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5234375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G166"/>
+    <sheetView topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="G167" sqref="G167:G212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.80859375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8886,6 +10158,7 @@
       <sortCondition descending="1" ref="I1:I212"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/step3/2_days_excel_results/spymemcached_final.xlsx
+++ b/step3/2_days_excel_results/spymemcached_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\cmput402-project\step3\2_days_excel_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomlin/Documents/GitHub/cmput402-project/step3/2_days_excel_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF535A5D-C0D2-40B2-9BA5-6193C3134287}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690BA236-49AA-6A40-A9DA-1EDFE9BD36EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="460" windowWidth="27460" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DA" sheetId="2" r:id="rId1"/>
@@ -19,11 +19,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">spymemcached_final!$A$1:$I$212</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">spymemcached_final!$G$167:$G$212</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">spymemcached_final!$G$2:$G$166</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">spymemcached_final!$G$167:$G$212</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">spymemcached_final!$G$2:$G$166</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">spymemcached_final!$G$2:$G$166</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="16" r:id="rId4"/>
+    <pivotCache cacheId="17" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -102,21 +107,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -124,7 +129,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -132,7 +137,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -140,35 +145,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -176,7 +181,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -184,14 +189,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -199,14 +204,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -214,7 +219,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -222,20 +227,20 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -692,7 +697,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -712,6 +717,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -881,7 +927,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="871291151"/>
@@ -940,7 +986,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="856785679"/>
@@ -982,7 +1028,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1019,7 +1065,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1090,7 +1136,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1110,6 +1156,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1255,7 +1342,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="469211664"/>
@@ -1314,7 +1401,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="469211008"/>
@@ -1356,7 +1443,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1393,7 +1480,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1418,6 +1505,62 @@
     </c:ext>
   </c:extLst>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{518A6174-5B78-E44F-8E1D-1466427EBAD8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>TRUE</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000001-4EF2-DA43-AA8D-12ED4531B8BB}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>FALSE</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1461,6 +1604,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2506,6 +2689,521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2583,6 +3281,89 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1346200</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B8FABAF-21F4-E94A-9F87-98090512ED59}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9512300" y="26111200"/>
+              <a:ext cx="12814300" cy="7721600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3324,7 +4105,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7325BA3A-6F33-7C4D-9350-FF229CCE2FFE}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7325BA3A-6F33-7C4D-9350-FF229CCE2FFE}" name="PivotTable19" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -3413,7 +4194,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB6E5A0D-CFD3-4CA3-B0C7-F98F72B2475F}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB6E5A0D-CFD3-4CA3-B0C7-F98F72B2475F}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField name="DirectlyApproveRate" axis="axisRow" dataField="1" showAll="0">
@@ -3792,7 +4573,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
@@ -3905,14 +4686,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2495AA59-6209-4772-9113-35F3C5FE154C}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3990,20 +4771,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I212"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="G167" sqref="G167:G212"/>
+    <sheetView tabSelected="1" topLeftCell="G130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.47265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.80859375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10160,5 +10941,6 @@
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>